--- a/biology/Botanique/Parc_de_Lapinlahti/Parc_de_Lapinlahti.xlsx
+++ b/biology/Botanique/Parc_de_Lapinlahti/Parc_de_Lapinlahti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Lapinlahti (en finnois : Lapinlahden puistikko) est un parc du quartier de Kamppi au centre d’Helsinki en Finlande. 
 </t>
@@ -511,11 +523,13 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Lapinlahti est situé dans le triangle délimité par les rues Lapinlahdenkatu, Eerikinkatu et Albertinkatu.
 Comme de nombreux autres parcs triangulaires du centre-ville d'Helsinki, dont le  bosquet des enfants voisin, le parc de Lapinlahti est situé à l'intersection de deux zones de plans hippodamiens divergents.
-La sculpture Ihminen nousee roskalaatikosta de l'artiste letton Oskars Mikans, représentant Arvo Parkkila (fi), y a été érigée en 2001[1].
+La sculpture Ihminen nousee roskalaatikosta de l'artiste letton Oskars Mikans, représentant Arvo Parkkila (fi), y a été érigée en 2001.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bus des lignes 20 et 30  desservent l'arrêt Lapinlahden puistikko.
 </t>
